--- a/app/提出用_帳票.xlsx
+++ b/app/提出用_帳票.xlsx
@@ -529,7 +529,7 @@
         <v>9600</v>
       </c>
       <c r="C6">
-        <v>323000</v>
+        <v>308900</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -538,7 +538,7 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>33.65</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
